--- a/doorcalculate\polls\document_gen\to_excel.xlsx
+++ b/doorcalculate\polls\document_gen\to_excel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,282 +424,168 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Модель</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Тип коробу</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Відкривання</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Сторона</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Полотно</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Короб</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Отвір</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Оздоблення полотна</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Алюм обв'язок</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Колір фарбування профілю</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Колір ущільнювача</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Врізання</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Колір фурн</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>к-сть</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Ціна</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Усього</t>
+          <t>Бланк замовлення №
+	650550</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Отвори</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Петлі</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Менеджер: Ольга Шпонька Номер менеджера: 0663932161</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Тип коробу</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Відкривання</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Сторона</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ширина мм лице\тил</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Висота мм лице\тил</t>
+          <t>Полотно</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ширина мм</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Висота мм</t>
+          <t>Короб</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Ширина мм</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Висота мм</t>
+          <t>Отвір</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Оздоблення полотна</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Алюм обв'язок</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Колір фарбування профілю</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Колір ущільнювача</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Ручка</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>WC/PZ</t>
+          <t>Врізання</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Колір фурн</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>к-сть</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>грн</t>
+          <t>Ціна</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>грн</t>
+          <t>Усього</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Grezza PN ґрунт</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SlimTS</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Левое</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>лицьова</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>615</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>689</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2145</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>669</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2135</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Ґрунт</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Чорний</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Чорний</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>WC</t>
+          <t>Отвори</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Чорний</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>15990</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>31980</t>
+          <t>Петлі</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Внутрішнє</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>тил</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>Ширина мм лице\тил</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>Висота мм лице\тил</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ширина мм</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Висота мм</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Ширина мм</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Висота мм</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Ручка</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>WC/PZ</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>грн</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>грн</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Grezza PN ґрунт</t>
+          <t>Grezza PA ґрунт</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -709,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Правое</t>
+          <t>Ліве</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -719,7 +605,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>815</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -729,7 +615,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>889</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -739,7 +625,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>869</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -759,12 +645,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Чорний</t>
+          <t>Анодований</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Чорний</t>
+          <t>Сірий</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -784,12 +670,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Чорний</t>
+          <t>Мат.хром</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -799,14 +685,14 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>47970</t>
+          <t>15990</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Зовнішнє</t>
+          <t>Внутрішнє</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -816,39 +702,297 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>793</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Multistrato PA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SlimTS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ліве</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>лицьова</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2055</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Ґрунт</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Анодований</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Сірий</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Мат.хром</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>14988</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>14988</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Внутрішнє</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>тил</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Grezza ґрунт</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SlimTS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ліве</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>лицьова</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2055</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Ґрунт</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Анодований</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Сірий</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Мат.хром</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>14988</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>14988</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Всього за дверні блоки: 79950.0 грн
-		Знижка:0.0%
-		Усього, з урахуванням знижки: 79950.0 грн
-		Доставка на склад (об'єкт) без вивантаження та занесення на поверх: 99999999.0 грн
-		Монтаж:631.0грнЗаміри: 99999999.0 грн
-		Всього за послуги: 200003153.0 грн
-		Всього сума замовлення: 200083103.0 грн
-		Передплата: 100.0 % 
-		Передплата: 200083103.0 грн 
-		Залишок: 0.0 грн</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Місто: Кам'янськеЗамовник: Иванов
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Внутрішнє</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>тил</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Всього за дверні блоки: 45966.0 грн
+		Знижка:10.0%
+		Усього, з урахуванням знижки: 41369.4 грн
+		Доставка на склад (об'єкт) без вивантаження та занесення на поверх: 600.0 грн
+		Монтаж:1500.0грнЗаміри: 450.0 грн
+		Всього за послуги: 5550.0 грн
+		Всього сума замовлення: 46919.4 грн
+		Передплата: 30.0 % 
+		Передплата: 14075.82 грн 
+		Залишок: 32843.58 грн</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Місто: КиївЗамовник: Еліна
 		Доставка замовлення: 
-		Контакти: 02369525
+		Контакти: 067-909-73-84
 		Ел.Адреса:</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Висота ручки: 1000 мм. від низу полотна.
 			Зазор від підлоги до полотна: 8 мм.
@@ -858,98 +1002,125 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
     <row r="18"/>
     <row r="19"/>
     <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="P3"/>
-    <mergeCell ref="H3"/>
+  <mergeCells count="108">
+    <mergeCell ref="D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F9"/>
     <mergeCell ref="C7"/>
-    <mergeCell ref="J3"/>
+    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="E7"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="P5"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="S10:S11"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="H11:N20"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="U3"/>
+    <mergeCell ref="O5"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="E9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="E6"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="E11"/>
     <mergeCell ref="U6:U7"/>
-    <mergeCell ref="O11:U20"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="T3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="A11:G20"/>
-    <mergeCell ref="F3"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A17:G26"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="O17:U26"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="F11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="J5"/>
+    <mergeCell ref="T5"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="L6:L7"/>
+    <mergeCell ref="C10"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="I3"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="H17:N26"/>
     <mergeCell ref="D7"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="U5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:U2"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="O3"/>
+    <mergeCell ref="C3:C5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="C6"/>
+    <mergeCell ref="T8:T9"/>
     <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="F6"/>
     <mergeCell ref="S6:S7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="D6"/>
-    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="D11"/>
     <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="D4"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="C8"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="E3"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="U3:U4"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="C5"/>
+    <mergeCell ref="D10"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="F10"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="L10:L11"/>
     <mergeCell ref="E5"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="N10:N11"/>
     <mergeCell ref="F7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="F5"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="O6:O7"/>
+    <mergeCell ref="T10:T11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
